--- a/prep/_resilience/prot.xlsx
+++ b/prep/_resilience/prot.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E757EB8-F2C2-46A4-A845-89280583CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D0B33-AF40-4984-BA62-665BEA68E0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1097" yWindow="1097" windowWidth="16457" windowHeight="9454" activeTab="2" xr2:uid="{BFE064BE-5FBD-4ECD-AB0A-0FE92852063D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{BFE064BE-5FBD-4ECD-AB0A-0FE92852063D}"/>
   </bookViews>
   <sheets>
     <sheet name="prot" sheetId="1" r:id="rId1"/>
     <sheet name="prc" sheetId="3" r:id="rId2"/>
     <sheet name="regiones" sheetId="4" r:id="rId3"/>
+    <sheet name="regiones2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">prc!$A$1:$C$105</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="120">
   <si>
     <t xml:space="preserve">Arica y Pariancota </t>
   </si>
@@ -406,6 +407,9 @@
   </si>
   <si>
     <t>pcot</t>
+  </si>
+  <si>
+    <t>posicion</t>
   </si>
 </sst>
 </file>
@@ -2071,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C064E-FBD2-491A-91BC-10B1AF16914A}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3219,6 +3223,149 @@
       </c>
       <c r="C104" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6A302-F75B-48BC-AD3B-A254DB37741C}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/prep/_resilience/prot.xlsx
+++ b/prep/_resilience/prot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D0B33-AF40-4984-BA62-665BEA68E0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F7284-6881-4BA1-866C-767CFDA9EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="3" xr2:uid="{BFE064BE-5FBD-4ECD-AB0A-0FE92852063D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{BFE064BE-5FBD-4ECD-AB0A-0FE92852063D}"/>
   </bookViews>
   <sheets>
     <sheet name="prot" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="120">
   <si>
     <t xml:space="preserve">Arica y Pariancota </t>
   </si>
@@ -2073,15 +2073,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C064E-FBD2-491A-91BC-10B1AF16914A}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2091,8 +2091,11 @@
       <c r="C1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7</v>
       </c>
@@ -2102,8 +2105,11 @@
       <c r="C2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>91</v>
       </c>
@@ -2113,8 +2119,11 @@
       <c r="C3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>67</v>
       </c>
@@ -2124,8 +2133,11 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>72</v>
       </c>
@@ -2135,8 +2147,11 @@
       <c r="C5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>68</v>
       </c>
@@ -2146,8 +2161,11 @@
       <c r="C6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>81</v>
       </c>
@@ -2157,8 +2175,11 @@
       <c r="C7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>84</v>
       </c>
@@ -2168,8 +2189,11 @@
       <c r="C8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>48</v>
       </c>
@@ -2179,8 +2203,11 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>96</v>
       </c>
@@ -2190,8 +2217,11 @@
       <c r="C10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>59</v>
       </c>
@@ -2201,8 +2231,11 @@
       <c r="C11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>97</v>
       </c>
@@ -2212,8 +2245,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2223,8 +2259,11 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>21</v>
       </c>
@@ -2234,8 +2273,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>38</v>
       </c>
@@ -2245,8 +2287,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>76</v>
       </c>
@@ -2256,8 +2301,11 @@
       <c r="C16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>75</v>
       </c>
@@ -2267,8 +2315,11 @@
       <c r="C17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>73</v>
       </c>
@@ -2278,8 +2329,11 @@
       <c r="C18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2289,8 +2343,11 @@
       <c r="C19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>78</v>
       </c>
@@ -2300,8 +2357,11 @@
       <c r="C20" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2311,8 +2371,11 @@
       <c r="C21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>31</v>
       </c>
@@ -2322,8 +2385,11 @@
       <c r="C22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>33</v>
       </c>
@@ -2333,8 +2399,11 @@
       <c r="C23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>77</v>
       </c>
@@ -2344,8 +2413,11 @@
       <c r="C24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2355,8 +2427,11 @@
       <c r="C25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2366,8 +2441,11 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>39</v>
       </c>
@@ -2377,8 +2455,11 @@
       <c r="C27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2388,8 +2469,11 @@
       <c r="C28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2399,8 +2483,11 @@
       <c r="C29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>57</v>
       </c>
@@ -2410,8 +2497,11 @@
       <c r="C30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>70</v>
       </c>
@@ -2421,8 +2511,11 @@
       <c r="C31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>71</v>
       </c>
@@ -2432,8 +2525,11 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>53</v>
       </c>
@@ -2443,8 +2539,11 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>37</v>
       </c>
@@ -2454,8 +2553,11 @@
       <c r="C34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>74</v>
       </c>
@@ -2465,8 +2567,11 @@
       <c r="C35" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>80</v>
       </c>
@@ -2476,8 +2581,11 @@
       <c r="C36" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>85</v>
       </c>
@@ -2487,8 +2595,11 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>47</v>
       </c>
@@ -2498,8 +2609,11 @@
       <c r="C38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>30</v>
       </c>
@@ -2509,8 +2623,11 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>99</v>
       </c>
@@ -2520,8 +2637,11 @@
       <c r="C40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>56</v>
       </c>
@@ -2531,8 +2651,11 @@
       <c r="C41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>94</v>
       </c>
@@ -2542,8 +2665,11 @@
       <c r="C42" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>90</v>
       </c>
@@ -2553,8 +2679,11 @@
       <c r="C43" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>82</v>
       </c>
@@ -2564,8 +2693,11 @@
       <c r="C44" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2575,8 +2707,11 @@
       <c r="C45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>92</v>
       </c>
@@ -2586,8 +2721,11 @@
       <c r="C46" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2597,8 +2735,11 @@
       <c r="C47" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>52</v>
       </c>
@@ -2608,8 +2749,11 @@
       <c r="C48" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2619,8 +2763,11 @@
       <c r="C49" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2630,8 +2777,11 @@
       <c r="C50" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>55</v>
       </c>
@@ -2641,8 +2791,11 @@
       <c r="C51" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>29</v>
       </c>
@@ -2652,8 +2805,11 @@
       <c r="C52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>86</v>
       </c>
@@ -2663,8 +2819,11 @@
       <c r="C53" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>40</v>
       </c>
@@ -2674,8 +2833,11 @@
       <c r="C54" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>88</v>
       </c>
@@ -2685,8 +2847,11 @@
       <c r="C55" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>65</v>
       </c>
@@ -2696,8 +2861,11 @@
       <c r="C56" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>95</v>
       </c>
@@ -2707,8 +2875,11 @@
       <c r="C57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>24</v>
       </c>
@@ -2718,8 +2889,11 @@
       <c r="C58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>98</v>
       </c>
@@ -2729,8 +2903,11 @@
       <c r="C59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>22</v>
       </c>
@@ -2740,8 +2917,11 @@
       <c r="C60" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>19</v>
       </c>
@@ -2751,8 +2931,11 @@
       <c r="C61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>64</v>
       </c>
@@ -2762,8 +2945,11 @@
       <c r="C62" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>26</v>
       </c>
@@ -2773,8 +2959,11 @@
       <c r="C63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>32</v>
       </c>
@@ -2784,8 +2973,11 @@
       <c r="C64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>50</v>
       </c>
@@ -2795,8 +2987,11 @@
       <c r="C65" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>101</v>
       </c>
@@ -2806,8 +3001,11 @@
       <c r="C66" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>63</v>
       </c>
@@ -2817,8 +3015,11 @@
       <c r="C67" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2828,8 +3029,11 @@
       <c r="C68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>51</v>
       </c>
@@ -2839,8 +3043,11 @@
       <c r="C69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>60</v>
       </c>
@@ -2850,8 +3057,11 @@
       <c r="C70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>87</v>
       </c>
@@ -2861,8 +3071,11 @@
       <c r="C71" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>83</v>
       </c>
@@ -2872,8 +3085,11 @@
       <c r="C72" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>14</v>
       </c>
@@ -2883,8 +3099,11 @@
       <c r="C73" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>35</v>
       </c>
@@ -2894,8 +3113,11 @@
       <c r="C74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>34</v>
       </c>
@@ -2905,8 +3127,11 @@
       <c r="C75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2916,8 +3141,11 @@
       <c r="C76" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>15</v>
       </c>
@@ -2927,8 +3155,11 @@
       <c r="C77" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>100</v>
       </c>
@@ -2938,8 +3169,11 @@
       <c r="C78" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>102</v>
       </c>
@@ -2949,8 +3183,11 @@
       <c r="C79" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>25</v>
       </c>
@@ -2960,8 +3197,11 @@
       <c r="C80" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2971,8 +3211,11 @@
       <c r="C81" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>69</v>
       </c>
@@ -2982,8 +3225,11 @@
       <c r="C82" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>103</v>
       </c>
@@ -2993,8 +3239,11 @@
       <c r="C83" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>62</v>
       </c>
@@ -3004,8 +3253,11 @@
       <c r="C84" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>45</v>
       </c>
@@ -3015,8 +3267,11 @@
       <c r="C85" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>54</v>
       </c>
@@ -3026,8 +3281,11 @@
       <c r="C86" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>11</v>
       </c>
@@ -3037,8 +3295,11 @@
       <c r="C87" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>61</v>
       </c>
@@ -3048,8 +3309,11 @@
       <c r="C88" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>28</v>
       </c>
@@ -3059,8 +3323,11 @@
       <c r="C89" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>46</v>
       </c>
@@ -3070,8 +3337,11 @@
       <c r="C90" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>44</v>
       </c>
@@ -3081,8 +3351,11 @@
       <c r="C91" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>36</v>
       </c>
@@ -3092,8 +3365,11 @@
       <c r="C92" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>42</v>
       </c>
@@ -3103,8 +3379,11 @@
       <c r="C93" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>27</v>
       </c>
@@ -3114,8 +3393,11 @@
       <c r="C94" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>9</v>
       </c>
@@ -3125,8 +3407,11 @@
       <c r="C95" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>18</v>
       </c>
@@ -3136,8 +3421,11 @@
       <c r="C96" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>89</v>
       </c>
@@ -3147,8 +3435,11 @@
       <c r="C97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3158,8 +3449,11 @@
       <c r="C98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>58</v>
       </c>
@@ -3169,8 +3463,11 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>93</v>
       </c>
@@ -3180,8 +3477,11 @@
       <c r="C100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>43</v>
       </c>
@@ -3191,8 +3491,11 @@
       <c r="C101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>41</v>
       </c>
@@ -3202,8 +3505,11 @@
       <c r="C102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>10</v>
       </c>
@@ -3213,8 +3519,11 @@
       <c r="C103" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>5</v>
       </c>
@@ -3223,6 +3532,9 @@
       </c>
       <c r="C104" t="s">
         <v>0</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3234,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6A302-F75B-48BC-AD3B-A254DB37741C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
